--- a/Methodology/Accounting for mediation effects/Enhanced equation calculations.xlsx
+++ b/Methodology/Accounting for mediation effects/Enhanced equation calculations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boazy.saffer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boazy.saffer/Documents/GitHub/Risk-Calculator/Methodology/Accounting for mediation effects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDA2EF8-D387-A241-9230-B8CC1B5B537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF43495-5E03-7B46-BB36-5350CD090A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,6 +44,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Overview and Purpose</t>
     </r>
@@ -52,6 +53,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 The purpose of this spreadsheet is to accurately calculate the combined relative risk of health outcomes by integrating both the direct effects of a risk factor (e.g., lifestyle habit) and the total effect of a mediator (e.g., a biomarker). The spreadsheet automatically calculates the direct effect of the risk factor, the population average risks for both the risk factor and the mediator, and the combined relative risk. The formulas used are integrated into the spreadsheet and will update the calculations based on your input.
@@ -63,6 +65,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>How to Use the Risk Calculation Spreadsheet</t>
     </r>
@@ -71,6 +74,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 1. The spreadsheet already contains default values for risk factor prevalence, relative risk (RR) values, and mediator prevalence and RR values. You can modify these values to match your specific data or scenario.
@@ -171,6 +175,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -180,24 +185,28 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1023,7 +1032,7 @@
   <dimension ref="A1:Z1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -1789,7 +1798,7 @@
         <v>1.55</v>
       </c>
       <c r="G27" s="12">
-        <f t="shared" ref="G27:G28" si="0">C27/F27</f>
+        <f>C27/F27</f>
         <v>1.2903225806451613</v>
       </c>
       <c r="H27" s="13">
@@ -1830,7 +1839,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G27:G28" si="0">C28/F28</f>
         <v>1.7391304347826089</v>
       </c>
       <c r="H28" s="5"/>
@@ -1953,23 +1962,23 @@
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="C32" s="15">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="12">
         <f>1+(1-C32)*(C27-1)</f>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="G32" s="12">
         <f>(D15*(1+(1-C32)*(C15-1)))+
 (D16*(1+(1-C32)*(C16-1)))+
 (D17*(1+(1-C32)*(C17-1)))</f>
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="H32" s="12">
         <f>F32/G32</f>
-        <v>1.2903225806451613</v>
+        <v>1.1475409836065573</v>
       </c>
       <c r="I32" s="12">
         <f>G28</f>
@@ -1977,7 +1986,7 @@
       </c>
       <c r="J32" s="13">
         <f>I32*H32</f>
-        <v>2.2440392706872374</v>
+        <v>1.9957234497505347</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
